--- a/biology/Zoologie/Élevage_de_renards/Élevage_de_renards.xlsx
+++ b/biology/Zoologie/Élevage_de_renards/Élevage_de_renards.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89levage_de_renards</t>
+          <t>Élevage_de_renards</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vulpiculture
-L'élevage de renards ou vulpiculture est l'ensemble des opérations visant à faire reproduire (en) les renards au profit de l'activité humaine. L'établissement qui pratique cet élevage s'appelle une renardière (surtout au Québec). Les principales espèces élevées sont le Renard roux (Vulpes vulpes) et le Renard polaire (Vulpes lagopus). Cet élevage a pour objet principal la production de fourrure (de). Il se pratique surtout en Amérique du Nord, en Chine et en Europe[1].
+L'élevage de renards ou vulpiculture est l'ensemble des opérations visant à faire reproduire (en) les renards au profit de l'activité humaine. L'établissement qui pratique cet élevage s'appelle une renardière (surtout au Québec). Les principales espèces élevées sont le Renard roux (Vulpes vulpes) et le Renard polaire (Vulpes lagopus). Cet élevage a pour objet principal la production de fourrure (de). Il se pratique surtout en Amérique du Nord, en Chine et en Europe.
 	Exemple d'espèces élevées
 			Renard roux
 			Renard polaire
